--- a/ES2.xlsx
+++ b/ES2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACD440-D433-4FD6-8991-F64B41CCF39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAEB79A-19F9-4A43-BDED-E97C354BD47B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
   </bookViews>
@@ -147,32 +147,141 @@
     <t>S19</t>
   </si>
   <si>
-    <t>R2/S7</t>
-  </si>
-  <si>
-    <t>R6/S9</t>
-  </si>
-  <si>
-    <t>R6/S10</t>
-  </si>
-  <si>
-    <t>R7/S9</t>
-  </si>
-  <si>
-    <t>R7/S10</t>
-  </si>
-  <si>
     <t>S20</t>
   </si>
   <si>
     <t>S21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/S7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R6/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/S10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/S9</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +295,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,9 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,6 +439,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,40 +764,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED377E-0519-4541-9AD7-F33EE2F60323}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -685,35 +843,35 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="13">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
         <v>1</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="13">
         <v>2</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -741,29 +899,29 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -789,37 +947,37 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -857,31 +1015,31 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>12</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -917,31 +1075,31 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13">
         <v>14</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -973,31 +1131,31 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
         <v>16</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1031,29 +1189,29 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1063,8 +1221,8 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
+      <c r="E16" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1081,42 +1239,42 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="13">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -1143,37 +1301,37 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="13">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1187,7 +1345,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1199,31 +1357,31 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1261,27 +1419,27 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="13">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1315,26 +1473,29 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
       <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1343,5 +1504,6 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ES2.xlsx
+++ b/ES2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAEB79A-19F9-4A43-BDED-E97C354BD47B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A210B02-BABB-4A2B-A73B-78A2849E2E78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>ACTION</t>
   </si>
@@ -275,6 +275,144 @@
       </rPr>
       <t>/S9</t>
     </r>
+  </si>
+  <si>
+    <t>e1: echo "missing expression before operator" insert id</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2: echo "file starting with unexpected symbol" skip</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e4: echo "misuse of operator: left operand must be an expression" skip</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6: echo "unexpected ) here" skip</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7: echo "unexpected , here" skip</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>e8: echo "misuse of &amp; here: incorrect left operand" skip</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>e10</t>
+  </si>
+  <si>
+    <t>e10: echo "unexpected ( here" skip</t>
+  </si>
+  <si>
+    <t>e11</t>
+  </si>
+  <si>
+    <t>e3: echo "empty input" pop until 0 push 1</t>
+  </si>
+  <si>
+    <t>e12</t>
+  </si>
+  <si>
+    <t>e12: echo "unexpected eof" pop until 0 push 1</t>
+  </si>
+  <si>
+    <t>e13: echo "unexpected operator here" skip</t>
+  </si>
+  <si>
+    <t>e13</t>
+  </si>
+  <si>
+    <t>e16</t>
+  </si>
+  <si>
+    <t>e17</t>
+  </si>
+  <si>
+    <t>e18</t>
+  </si>
+  <si>
+    <t>e19</t>
+  </si>
+  <si>
+    <t>e14: echo "repeated operator here" skip</t>
+  </si>
+  <si>
+    <t>e14</t>
+  </si>
+  <si>
+    <t>e15: echo "missing ( here" insert (</t>
+  </si>
+  <si>
+    <t>e15</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>i1: echo "the impossible happened" internal error halt</t>
+  </si>
+  <si>
+    <t>e16: echo "unexpected &amp; here" skip</t>
+  </si>
+  <si>
+    <t>e19: echo "missing expression before eof" insert id</t>
+  </si>
+  <si>
+    <t>e18: echo "missing expression before separator" insert id</t>
+  </si>
+  <si>
+    <t>e20</t>
+  </si>
+  <si>
+    <t>e20: echo "missing ) here" insert )</t>
+  </si>
+  <si>
+    <t>e21</t>
+  </si>
+  <si>
+    <t>e22</t>
+  </si>
+  <si>
+    <t>e17: echo "expected expression found pred" pop until 0</t>
+  </si>
+  <si>
+    <t>e22: echo "missing &amp; here" insert &amp;</t>
+  </si>
+  <si>
+    <t>e5: echo "unexpected pred here" skip</t>
+  </si>
+  <si>
+    <t>e9: echo "unexpected rel here" skip</t>
+  </si>
+  <si>
+    <t>e11: echo "missing algebraic operator here" insert *</t>
+  </si>
+  <si>
+    <t>e21: echo "repeated separator here" skip</t>
   </si>
 </sst>
 </file>
@@ -332,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +572,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,14 +594,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,40 +912,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED377E-0519-4541-9AD7-F33EE2F60323}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q25:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="62.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -842,54 +996,89 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13">
+      <c r="K3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="9">
         <v>1</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="9">
         <v>2</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
@@ -897,90 +1086,146 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
+      <c r="I7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -996,13 +1241,21 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1013,58 +1266,94 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
+      <c r="K9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
         <v>12</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M10" s="2">
         <v>13</v>
       </c>
@@ -1073,112 +1362,188 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
+      <c r="K11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
         <v>14</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
         <v>15</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
+      <c r="K13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9">
         <v>16</v>
       </c>
-      <c r="O13" s="13"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
         <v>18</v>
@@ -1187,49 +1552,89 @@
         <v>17</v>
       </c>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="Q14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="D15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="I15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="11" t="s">
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1237,43 +1642,63 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="Q16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13" t="s">
+      <c r="F17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1282,13 +1707,21 @@
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1299,92 +1732,146 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13" t="s">
+      <c r="I19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="D21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
+      <c r="I21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="L21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1400,13 +1887,21 @@
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1417,52 +1912,92 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="Q22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13" t="s">
+      <c r="F23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
         <v>18</v>
@@ -1471,31 +2006,54 @@
         <v>22</v>
       </c>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="Q24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="I25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G26" s="10"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ES2.xlsx
+++ b/ES2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A210B02-BABB-4A2B-A73B-78A2849E2E78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A29763-C569-48F8-99C8-0B1BAC31D669}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="194">
   <si>
     <t>ACTION</t>
   </si>
@@ -413,6 +414,315 @@
   </si>
   <si>
     <t>e21: echo "repeated separator here" skip</t>
+  </si>
+  <si>
+    <t>STACK</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>SYMBOLS</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>E*</t>
+  </si>
+  <si>
+    <t>0 2 10</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>0 4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>E*id</t>
+  </si>
+  <si>
+    <t>0 2 10 5</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>E*E</t>
+  </si>
+  <si>
+    <t>0 2 10 16</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>E rel</t>
+  </si>
+  <si>
+    <t>E rel id</t>
+  </si>
+  <si>
+    <t>E rel E</t>
+  </si>
+  <si>
+    <t>0 2 8</t>
+  </si>
+  <si>
+    <t>0 2 8 5</t>
+  </si>
+  <si>
+    <t>0 2 8 14</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>C&amp;</t>
+  </si>
+  <si>
+    <t>0 1 7</t>
+  </si>
+  <si>
+    <t>C&amp;pred</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>0 1 7 3</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>C&amp;pred(</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11</t>
+  </si>
+  <si>
+    <t>C&amp;pred(num</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 4</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,num</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21 4</t>
+  </si>
+  <si>
+    <t>e11 insert *</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,E</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21 18</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,E*</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21 18 10</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,E*id</t>
+  </si>
+  <si>
+    <t>) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>*id rel id &amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>id rel id &amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rel id &amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>rel id &amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>id &amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>*id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21 18 10 5</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,E*E</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21 18 10 16</t>
+  </si>
+  <si>
+    <t>r9</t>
+  </si>
+  <si>
+    <t>C&amp;pred(E,Es</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 18 21 22</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>C&amp;pred(Es</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 17</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>C&amp;pred(Es)</t>
+  </si>
+  <si>
+    <t>&amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>0 1 7 3 11 17 20</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>C&amp;C</t>
+  </si>
+  <si>
+    <t>0 1 7 13</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>id id rel num $</t>
+  </si>
+  <si>
+    <t>C&amp;id</t>
+  </si>
+  <si>
+    <t>id rel num $</t>
+  </si>
+  <si>
+    <t>0 1 7 5</t>
+  </si>
+  <si>
+    <t>* id rel num $</t>
+  </si>
+  <si>
+    <t>C&amp;E</t>
+  </si>
+  <si>
+    <t>0 1 7 2</t>
+  </si>
+  <si>
+    <t>C&amp;E*</t>
+  </si>
+  <si>
+    <t>0 1 7 2 10</t>
+  </si>
+  <si>
+    <t>C&amp;E*id</t>
+  </si>
+  <si>
+    <t>rel num $</t>
+  </si>
+  <si>
+    <t>0 1 7 2 10 5</t>
+  </si>
+  <si>
+    <t>C&amp;E*E</t>
+  </si>
+  <si>
+    <t>0 1 7 2 10 16</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>C&amp; E rel</t>
+  </si>
+  <si>
+    <t>num $</t>
+  </si>
+  <si>
+    <t>0 1 7 2 8</t>
+  </si>
+  <si>
+    <t>C &amp; E rel num</t>
+  </si>
+  <si>
+    <t>0 1 7 2 8 4</t>
+  </si>
+  <si>
+    <t>C &amp; E rel E</t>
+  </si>
+  <si>
+    <t>0 1 7 2 8 14</t>
+  </si>
+  <si>
+    <t>C &amp; C</t>
   </si>
 </sst>
 </file>
@@ -555,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,6 +892,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,8 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -914,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED377E-0519-4541-9AD7-F33EE2F60323}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q25:Q26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,34 +1237,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" s="1"/>
       <c r="Q1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1354,7 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1241,7 +1554,7 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2064,4 +2377,627 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE19B0D-9F8D-4D62-A43E-07D8DC559465}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ES2.xlsx
+++ b/ES2.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A29763-C569-48F8-99C8-0B1BAC31D669}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DD4B3-7D6F-4BD1-8E49-C7E57F05E12D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
+    <workbookView xWindow="12060" yWindow="1032" windowWidth="17460" windowHeight="10668" activeTab="2" xr2:uid="{16F085D1-0E55-4380-B8E7-B1756AAE127C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="195">
   <si>
     <t>ACTION</t>
   </si>
@@ -724,12 +726,15 @@
   <si>
     <t>C &amp; C</t>
   </si>
+  <si>
+    <t>S7/R2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +780,14 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -865,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -902,13 +915,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1255,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED377E-0519-4541-9AD7-F33EE2F60323}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,34 +1268,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="1"/>
       <c r="Q1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2383,9 +2414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE19B0D-9F8D-4D62-A43E-07D8DC559465}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2424,7 +2456,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2438,7 +2470,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2452,7 +2484,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3000,4 +3032,1063 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3148439B-124E-4C68-9E50-CDE579BD0491}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="1">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
+        <v>12</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <v>14</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9">
+        <v>16</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>18</v>
+      </c>
+      <c r="O24" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ES2.xlsx
+++ b/ES2.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DD4B3-7D6F-4BD1-8E49-C7E57F05E12D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91069FD1-C2AB-4019-955F-92F7A3B73184}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
-    <workbookView xWindow="12060" yWindow="1032" windowWidth="17460" windowHeight="10668" activeTab="2" xr2:uid="{16F085D1-0E55-4380-B8E7-B1756AAE127C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{16F085D1-0E55-4380-B8E7-B1756AAE127C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="194">
   <si>
     <t>ACTION</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>C &amp; C</t>
-  </si>
-  <si>
-    <t>S7/R2</t>
   </si>
 </sst>
 </file>
@@ -918,6 +915,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,15 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,7 +1256,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,34 +1265,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="1"/>
       <c r="Q1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3041,37 +3038,37 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="1">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
@@ -3217,19 +3214,19 @@
       <c r="E5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>76</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -3375,13 +3372,13 @@
       <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>46</v>
+      <c r="D9" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -3469,7 +3466,7 @@
       <c r="E11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -3512,7 +3509,7 @@
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -3555,7 +3552,7 @@
       <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -3592,13 +3589,13 @@
       <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3637,25 +3634,25 @@
       <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="19" t="s">
+      <c r="I15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>76</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -3682,7 +3679,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>76</v>
@@ -3883,7 +3880,7 @@
       <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -4012,7 +4009,7 @@
       <c r="E24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="2" t="s">

--- a/ES2.xlsx
+++ b/ES2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91069FD1-C2AB-4019-955F-92F7A3B73184}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E2E11-CAEB-4524-883B-A8E3D3C7D122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{16F085D1-0E55-4380-B8E7-B1756AAE127C}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{9CFD4DEF-A438-41FA-B357-4179B5857892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{16F085D1-0E55-4380-B8E7-B1756AAE127C}"/>
+    <workbookView xWindow="14100" yWindow="4476" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1162ADE3-761A-4357-8162-8A8EDDA98D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="193">
   <si>
     <t>ACTION</t>
   </si>
@@ -445,9 +447,6 @@
     <t>0 2</t>
   </si>
   <si>
-    <t>0 4</t>
-  </si>
-  <si>
     <t>s5</t>
   </si>
   <si>
@@ -496,75 +495,39 @@
     <t>s7</t>
   </si>
   <si>
-    <t>C&amp;</t>
-  </si>
-  <si>
     <t>0 1 7</t>
   </si>
   <si>
-    <t>C&amp;pred</t>
-  </si>
-  <si>
     <t>s3</t>
   </si>
   <si>
-    <t>0 1 7 3</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
-    <t>C&amp;pred(</t>
-  </si>
-  <si>
     <t>0 1 7 3 11</t>
   </si>
   <si>
-    <t>C&amp;pred(num</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 4</t>
   </si>
   <si>
-    <t>C&amp;pred(E</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18</t>
   </si>
   <si>
     <t>s21</t>
   </si>
   <si>
-    <t>C&amp;pred(E,</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18 21</t>
   </si>
   <si>
-    <t>C&amp;pred(E,num</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18 21 4</t>
   </si>
   <si>
-    <t>e11 insert *</t>
-  </si>
-  <si>
-    <t>C&amp;pred(E,E</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18 21 18</t>
   </si>
   <si>
-    <t>C&amp;pred(E,E*</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18 21 18 10</t>
   </si>
   <si>
-    <t>C&amp;pred(E,E*id</t>
-  </si>
-  <si>
     <t>) &amp; id id rel num $</t>
   </si>
   <si>
@@ -574,18 +537,12 @@
     <t>id rel id &amp; pred(num,num id) &amp; id id rel num $</t>
   </si>
   <si>
-    <t xml:space="preserve"> rel id &amp; pred(num,num id) &amp; id id rel num $</t>
-  </si>
-  <si>
     <t>rel id &amp; pred(num,num id) &amp; id id rel num $</t>
   </si>
   <si>
     <t>id &amp; pred(num,num id) &amp; id id rel num $</t>
   </si>
   <si>
-    <t xml:space="preserve"> &amp; pred(num,num id) &amp; id id rel num $</t>
-  </si>
-  <si>
     <t>pred(num,num id) &amp; id id rel num $</t>
   </si>
   <si>
@@ -610,36 +567,24 @@
     <t>0 1 7 3 11 18 21 18 10 5</t>
   </si>
   <si>
-    <t>C&amp;pred(E,E*E</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18 21 18 10 16</t>
   </si>
   <si>
     <t>r9</t>
   </si>
   <si>
-    <t>C&amp;pred(E,Es</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 18 21 22</t>
   </si>
   <si>
     <t>r10</t>
   </si>
   <si>
-    <t>C&amp;pred(Es</t>
-  </si>
-  <si>
     <t>0 1 7 3 11 17</t>
   </si>
   <si>
     <t>s20</t>
   </si>
   <si>
-    <t>C&amp;pred(Es)</t>
-  </si>
-  <si>
     <t>&amp; id id rel num $</t>
   </si>
   <si>
@@ -649,9 +594,6 @@
     <t>r3</t>
   </si>
   <si>
-    <t>C&amp;C</t>
-  </si>
-  <si>
     <t>0 1 7 13</t>
   </si>
   <si>
@@ -661,9 +603,6 @@
     <t>id id rel num $</t>
   </si>
   <si>
-    <t>C&amp;id</t>
-  </si>
-  <si>
     <t>id rel num $</t>
   </si>
   <si>
@@ -673,39 +612,24 @@
     <t>* id rel num $</t>
   </si>
   <si>
-    <t>C&amp;E</t>
-  </si>
-  <si>
     <t>0 1 7 2</t>
   </si>
   <si>
-    <t>C&amp;E*</t>
-  </si>
-  <si>
     <t>0 1 7 2 10</t>
   </si>
   <si>
-    <t>C&amp;E*id</t>
-  </si>
-  <si>
     <t>rel num $</t>
   </si>
   <si>
     <t>0 1 7 2 10 5</t>
   </si>
   <si>
-    <t>C&amp;E*E</t>
-  </si>
-  <si>
     <t>0 1 7 2 10 16</t>
   </si>
   <si>
     <t>s8</t>
   </si>
   <si>
-    <t>C&amp; E rel</t>
-  </si>
-  <si>
     <t>num $</t>
   </si>
   <si>
@@ -725,6 +649,81 @@
   </si>
   <si>
     <t>C &amp; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 4 </t>
+  </si>
+  <si>
+    <t>&amp; pred(num,num id) &amp; id id rel num $</t>
+  </si>
+  <si>
+    <t>C &amp;</t>
+  </si>
+  <si>
+    <t>C &amp; pred</t>
+  </si>
+  <si>
+    <t>0 1  7 3</t>
+  </si>
+  <si>
+    <t>C &amp; pred(</t>
+  </si>
+  <si>
+    <t>C &amp; pred(num</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E,</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E,num</t>
+  </si>
+  <si>
+    <t>e11, insert *</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E,E</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E, E*</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E, E* id</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E, E*E</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E, E</t>
+  </si>
+  <si>
+    <t>C &amp; pred(E, Es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C &amp; pred(Es) </t>
+  </si>
+  <si>
+    <t>C &amp; pred(Es</t>
+  </si>
+  <si>
+    <t>C &amp; id</t>
+  </si>
+  <si>
+    <t>C &amp; E</t>
+  </si>
+  <si>
+    <t>C &amp; E*</t>
+  </si>
+  <si>
+    <t>C &amp; E*id</t>
+  </si>
+  <si>
+    <t>C &amp; E*E</t>
+  </si>
+  <si>
+    <t>C &amp; E rel</t>
   </si>
 </sst>
 </file>
@@ -1252,11 +1251,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED377E-0519-4541-9AD7-F33EE2F60323}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+    <sheetView workbookViewId="2">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2414,7 +2416,12 @@
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A18" workbookViewId="1">
+      <selection sqref="A1:D43"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="2">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2449,12 +2456,12 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>95</v>
@@ -2463,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,7 +2484,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2485,41 +2492,41 @@
         <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2527,444 +2534,444 @@
         <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -2972,13 +2979,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -2986,13 +2993,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -3000,10 +3007,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -3014,7 +3021,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -3035,11 +3042,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3148439B-124E-4C68-9E50-CDE579BD0491}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+    <sheetView zoomScaleNormal="100" workbookViewId="1">
       <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+    <sheetView workbookViewId="2">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,4 +4098,631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA701E6-B4AE-4EE2-B4DA-0A495184C7A3}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="2">
+      <selection activeCell="D43" sqref="A1:D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>